--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.76189964948773</v>
+        <v>0.133971</v>
       </c>
       <c r="H2">
-        <v>1.76189964948773</v>
+        <v>0.401913</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07044564940760263</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1020731687804873</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N2">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O2">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P2">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q2">
-        <v>148.2286016021581</v>
+        <v>11.625658806588</v>
       </c>
       <c r="R2">
-        <v>148.2286016021581</v>
+        <v>69.753952839528</v>
       </c>
       <c r="S2">
-        <v>0.2689001209954762</v>
+        <v>0.01885189420691134</v>
       </c>
       <c r="T2">
-        <v>0.2689001209954762</v>
+        <v>0.02084215752964592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.76189964948773</v>
+        <v>0.133971</v>
       </c>
       <c r="H3">
-        <v>1.76189964948773</v>
+        <v>0.401913</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07044564940760263</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1020731687804873</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N3">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P3">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q3">
-        <v>212.8206133985908</v>
+        <v>17.270026286618</v>
       </c>
       <c r="R3">
-        <v>212.8206133985908</v>
+        <v>155.430236579562</v>
       </c>
       <c r="S3">
-        <v>0.386075885994052</v>
+        <v>0.02800466742765629</v>
       </c>
       <c r="T3">
-        <v>0.386075885994052</v>
+        <v>0.04644183367090292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.76189964948773</v>
+        <v>0.133971</v>
       </c>
       <c r="H4">
-        <v>1.76189964948773</v>
+        <v>0.401913</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07044564940760263</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1020731687804873</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N4">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O4">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P4">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q4">
-        <v>22.07149219360729</v>
+        <v>1.678601478605</v>
       </c>
       <c r="R4">
-        <v>22.07149219360729</v>
+        <v>15.107413307445</v>
       </c>
       <c r="S4">
-        <v>0.04003968773409316</v>
+        <v>0.002721980579052776</v>
       </c>
       <c r="T4">
-        <v>0.04003968773409316</v>
+        <v>0.004514025015092871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.76189964948773</v>
+        <v>0.133971</v>
       </c>
       <c r="H5">
-        <v>1.76189964948773</v>
+        <v>0.401913</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.07044564940760263</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1020731687804873</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N5">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O5">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P5">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q5">
-        <v>30.18356169080783</v>
+        <v>2.314973597802</v>
       </c>
       <c r="R5">
-        <v>30.18356169080783</v>
+        <v>20.834762380218</v>
       </c>
       <c r="S5">
-        <v>0.05475571720305886</v>
+        <v>0.003753906602938105</v>
       </c>
       <c r="T5">
-        <v>0.05475571720305886</v>
+        <v>0.006225330349668288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.76189964948773</v>
+        <v>0.133971</v>
       </c>
       <c r="H6">
-        <v>1.76189964948773</v>
+        <v>0.401913</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.07044564940760263</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1020731687804873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N6">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O6">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P6">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q6">
-        <v>74.72313405921518</v>
+        <v>5.722889535438999</v>
       </c>
       <c r="R6">
-        <v>74.72313405921518</v>
+        <v>51.506005818951</v>
       </c>
       <c r="S6">
-        <v>0.1355545392218799</v>
+        <v>0.00928010273437568</v>
       </c>
       <c r="T6">
-        <v>0.1355545392218799</v>
+        <v>0.01538975560956468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.133971</v>
+      </c>
+      <c r="H7">
+        <v>0.401913</v>
+      </c>
+      <c r="I7">
+        <v>0.07044564940760263</v>
+      </c>
+      <c r="J7">
+        <v>0.1020731687804873</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>36.0566465</v>
+      </c>
+      <c r="N7">
+        <v>72.113293</v>
+      </c>
+      <c r="O7">
+        <v>0.111193493459698</v>
+      </c>
+      <c r="P7">
+        <v>0.08484175331361067</v>
+      </c>
+      <c r="Q7">
+        <v>4.8305449882515</v>
+      </c>
+      <c r="R7">
+        <v>28.983269929509</v>
+      </c>
+      <c r="S7">
+        <v>0.007833097856668442</v>
+      </c>
+      <c r="T7">
+        <v>0.008660066605612651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.767793</v>
+      </c>
+      <c r="H8">
+        <v>3.535586</v>
+      </c>
+      <c r="I8">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J8">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>86.777428</v>
+      </c>
+      <c r="N8">
+        <v>173.554856</v>
+      </c>
+      <c r="O8">
+        <v>0.2676090626666408</v>
+      </c>
+      <c r="P8">
+        <v>0.2041884050300022</v>
+      </c>
+      <c r="Q8">
+        <v>153.404529776404</v>
+      </c>
+      <c r="R8">
+        <v>613.618119105616</v>
+      </c>
+      <c r="S8">
+        <v>0.2487571684597294</v>
+      </c>
+      <c r="T8">
+        <v>0.1833462475003563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.767793</v>
+      </c>
+      <c r="H9">
+        <v>3.535586</v>
+      </c>
+      <c r="I9">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J9">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>128.9086913333333</v>
+      </c>
+      <c r="N9">
+        <v>386.726074</v>
+      </c>
+      <c r="O9">
+        <v>0.3975357976419474</v>
+      </c>
+      <c r="P9">
+        <v>0.4549857149118007</v>
+      </c>
+      <c r="Q9">
+        <v>227.8838821782273</v>
+      </c>
+      <c r="R9">
+        <v>1367.303293069364</v>
+      </c>
+      <c r="S9">
+        <v>0.3695311302142911</v>
+      </c>
+      <c r="T9">
+        <v>0.4085438812408977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.767793</v>
+      </c>
+      <c r="H10">
+        <v>3.535586</v>
+      </c>
+      <c r="I10">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J10">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.52958833333333</v>
+      </c>
+      <c r="N10">
+        <v>37.588765</v>
+      </c>
+      <c r="O10">
+        <v>0.03863944192356349</v>
+      </c>
+      <c r="P10">
+        <v>0.04422342393230168</v>
+      </c>
+      <c r="Q10">
+        <v>22.14971854854834</v>
+      </c>
+      <c r="R10">
+        <v>132.89831129129</v>
+      </c>
+      <c r="S10">
+        <v>0.03591746134451071</v>
+      </c>
+      <c r="T10">
+        <v>0.03970939891720881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.767793</v>
+      </c>
+      <c r="H11">
+        <v>3.535586</v>
+      </c>
+      <c r="I11">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J11">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.279662</v>
+      </c>
+      <c r="N11">
+        <v>51.83898599999999</v>
+      </c>
+      <c r="O11">
+        <v>0.05328798349515926</v>
+      </c>
+      <c r="P11">
+        <v>0.06098890064886812</v>
+      </c>
+      <c r="Q11">
+        <v>30.54686552596599</v>
+      </c>
+      <c r="R11">
+        <v>183.281193155796</v>
+      </c>
+      <c r="S11">
+        <v>0.04953407689222115</v>
+      </c>
+      <c r="T11">
+        <v>0.05476357029919983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.76189964948773</v>
-      </c>
-      <c r="H7">
-        <v>1.76189964948773</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>35.8777328128217</v>
-      </c>
-      <c r="N7">
-        <v>35.8777328128217</v>
-      </c>
-      <c r="O7">
-        <v>0.1146740488514397</v>
-      </c>
-      <c r="P7">
-        <v>0.1146740488514397</v>
-      </c>
-      <c r="Q7">
-        <v>63.21296486732498</v>
-      </c>
-      <c r="R7">
-        <v>63.21296486732498</v>
-      </c>
-      <c r="S7">
-        <v>0.1146740488514397</v>
-      </c>
-      <c r="T7">
-        <v>0.1146740488514397</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.767793</v>
+      </c>
+      <c r="H12">
+        <v>3.535586</v>
+      </c>
+      <c r="I12">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J12">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>42.71737566666666</v>
+      </c>
+      <c r="N12">
+        <v>128.152127</v>
+      </c>
+      <c r="O12">
+        <v>0.1317342208129911</v>
+      </c>
+      <c r="P12">
+        <v>0.1507718021634167</v>
+      </c>
+      <c r="Q12">
+        <v>75.51547768190366</v>
+      </c>
+      <c r="R12">
+        <v>453.0928660914219</v>
+      </c>
+      <c r="S12">
+        <v>0.1224541180786154</v>
+      </c>
+      <c r="T12">
+        <v>0.1353820465538521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.767793</v>
+      </c>
+      <c r="H13">
+        <v>3.535586</v>
+      </c>
+      <c r="I13">
+        <v>0.9295543505923973</v>
+      </c>
+      <c r="J13">
+        <v>0.8979268312195127</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>36.0566465</v>
+      </c>
+      <c r="N13">
+        <v>72.113293</v>
+      </c>
+      <c r="O13">
+        <v>0.111193493459698</v>
+      </c>
+      <c r="P13">
+        <v>0.08484175331361067</v>
+      </c>
+      <c r="Q13">
+        <v>63.7406872861745</v>
+      </c>
+      <c r="R13">
+        <v>254.962749144698</v>
+      </c>
+      <c r="S13">
+        <v>0.1033603956030296</v>
+      </c>
+      <c r="T13">
+        <v>0.07618168670799802</v>
       </c>
     </row>
   </sheetData>
